--- a/exp-trim_retrain.xlsx
+++ b/exp-trim_retrain.xlsx
@@ -1,85 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_\D\Notes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE02CCD6-545C-4D66-8E50-7DD1535081CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{92BAF9A4-EA49-4086-B32C-2EE28836290F}"/>
+    <workbookView windowWidth="28060" windowHeight="13300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="bibtex cumsum" sheetId="1" r:id="rId1"/>
     <sheet name="bibtex rank" sheetId="3" r:id="rId2"/>
     <sheet name="Delicious cum" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+  <si>
+    <t>bibtex</t>
+  </si>
   <si>
     <t>Precision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bibtex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>PsP</t>
+  </si>
+  <si>
+    <t>mAP</t>
   </si>
   <si>
     <t>cumsum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nDCG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PsP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PsnDCG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -87,17 +61,355 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -105,9 +417,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -118,28 +672,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -159,7 +757,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -179,6 +777,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -187,26 +786,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -218,7 +797,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>P@1</c:v>
+            <c:strRef>
+              <c:f>"P@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -244,6 +831,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex cumsum'!$A$15:$A$24</c:f>
@@ -323,17 +913,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-62D2-43E2-A8B4-9F9A1792E820}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>P@3</c:v>
+            <c:strRef>
+              <c:f>"P@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -359,6 +952,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex cumsum'!$A$15:$A$24</c:f>
@@ -438,17 +1034,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-62D2-43E2-A8B4-9F9A1792E820}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>P@5</c:v>
+            <c:strRef>
+              <c:f>"P@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -474,6 +1073,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex cumsum'!$A$15:$A$24</c:f>
@@ -544,7 +1146,7 @@
                   <c:v>13.83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6199999999999992</c:v>
+                  <c:v>9.62</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6.47</c:v>
@@ -553,11 +1155,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-62D2-43E2-A8B4-9F9A1792E820}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -615,7 +1212,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -627,7 +1224,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493289664"/>
@@ -674,7 +1270,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -686,7 +1282,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493293272"/>
@@ -703,6 +1298,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -716,7 +1312,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -728,19 +1324,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -763,9 +1351,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -777,7 +1364,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -791,6 +1378,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -804,7 +1392,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -816,7 +1404,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -830,7 +1417,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>mAP</c:v>
+            <c:strRef>
+              <c:f>"mAP"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -856,6 +1451,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex cumsum'!$A$15:$A$24</c:f>
@@ -914,7 +1512,7 @@
                   <c:v>22.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.440000000000001</c:v>
+                  <c:v>20.44</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>18.45</c:v>
@@ -935,11 +1533,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BE1F-415E-BDBD-10597BA071BB}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -983,7 +1576,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -995,7 +1588,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776956592"/>
@@ -1042,7 +1634,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1054,7 +1646,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776959216"/>
@@ -1071,13 +1662,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1100,9 +1684,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1114,7 +1697,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1134,7 +1717,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1154,6 +1737,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1162,26 +1746,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1193,7 +1757,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>P@1</c:v>
+            <c:strRef>
+              <c:f>"P@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1219,6 +1791,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Delicious cum'!$A$15:$A$24</c:f>
@@ -1268,19 +1843,19 @@
                   <c:v>66.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.849999999999994</c:v>
+                  <c:v>70.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.290000000000006</c:v>
+                  <c:v>70.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>69.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.989999999999995</c:v>
+                  <c:v>65.99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.260000000000005</c:v>
+                  <c:v>64.26</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>62.09</c:v>
@@ -1298,17 +1873,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A364-4584-B99E-484C677FD3CE}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>P@3</c:v>
+            <c:strRef>
+              <c:f>"P@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1334,6 +1912,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Delicious cum'!$A$15:$A$24</c:f>
@@ -1386,7 +1967,7 @@
                   <c:v>64.39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.069999999999993</c:v>
+                  <c:v>64.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>62.43</c:v>
@@ -1413,17 +1994,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A364-4584-B99E-484C677FD3CE}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>P@5</c:v>
+            <c:strRef>
+              <c:f>"P@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1449,6 +2033,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Delicious cum'!$A$15:$A$24</c:f>
@@ -1528,11 +2115,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A364-4584-B99E-484C677FD3CE}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1590,7 +2172,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1602,7 +2184,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493289664"/>
@@ -1649,7 +2230,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1661,7 +2242,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493293272"/>
@@ -1678,6 +2258,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -1691,7 +2272,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1703,19 +2284,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1738,9 +2311,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1752,7 +2324,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1772,7 +2344,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1792,6 +2364,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1800,26 +2373,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1831,7 +2384,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>@1</c:v>
+            <c:strRef>
+              <c:f>"@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1857,6 +2418,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Delicious cum'!$A$15:$A$24</c:f>
@@ -1898,7 +2462,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Delicious cum'!$H$3:$H$12</c:f>
+              <c:f>'Delicious cum'!$I$3:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1921,10 +2485,10 @@
                   <c:v>36.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.950000000000003</c:v>
+                  <c:v>34.95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.049999999999997</c:v>
+                  <c:v>34.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>33.47</c:v>
@@ -1936,17 +2500,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C895-4037-8190-F4704C47B6E3}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>@3</c:v>
+            <c:strRef>
+              <c:f>"@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1972,6 +2539,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Delicious cum'!$A$15:$A$24</c:f>
@@ -2013,7 +2583,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Delicious cum'!$J$3:$J$12</c:f>
+              <c:f>'Delicious cum'!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2027,7 +2597,7 @@
                   <c:v>36.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.729999999999997</c:v>
+                  <c:v>34.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30.94</c:v>
@@ -2051,17 +2621,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C895-4037-8190-F4704C47B6E3}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>@5</c:v>
+            <c:strRef>
+              <c:f>"@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2087,6 +2660,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Delicious cum'!$A$15:$A$24</c:f>
@@ -2128,7 +2704,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Delicious cum'!$L$3:$L$12</c:f>
+              <c:f>'Delicious cum'!$M$3:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2157,7 +2733,7 @@
                   <c:v>21.88</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.350000000000001</c:v>
+                  <c:v>20.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>16.46</c:v>
@@ -2166,11 +2742,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C895-4037-8190-F4704C47B6E3}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2228,7 +2799,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2240,7 +2811,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493289664"/>
@@ -2287,7 +2857,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2299,7 +2869,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493293272"/>
@@ -2316,6 +2885,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -2329,7 +2899,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2341,19 +2911,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2376,9 +2938,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2390,7 +2951,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2410,7 +2971,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2430,6 +2991,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2438,26 +3000,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2469,7 +3011,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>@1</c:v>
+            <c:strRef>
+              <c:f>"@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2495,6 +3045,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Delicious cum'!$A$15:$A$24</c:f>
@@ -2544,19 +3097,19 @@
                   <c:v>66.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.849999999999994</c:v>
+                  <c:v>70.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.290000000000006</c:v>
+                  <c:v>70.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>69.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.989999999999995</c:v>
+                  <c:v>65.99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.260000000000005</c:v>
+                  <c:v>64.26</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>62.09</c:v>
@@ -2574,17 +3127,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B9DC-439C-8A2B-F9F6EAFF19CA}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>@3</c:v>
+            <c:strRef>
+              <c:f>"@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2610,6 +3166,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Delicious cum'!$A$15:$A$24</c:f>
@@ -2659,10 +3218,10 @@
                   <c:v>61.94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.010000000000005</c:v>
+                  <c:v>66.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.599999999999994</c:v>
+                  <c:v>65.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>64.19</c:v>
@@ -2689,17 +3248,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B9DC-439C-8A2B-F9F6EAFF19CA}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>@5</c:v>
+            <c:strRef>
+              <c:f>"@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2725,6 +3287,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Delicious cum'!$A$15:$A$24</c:f>
@@ -2804,11 +3369,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B9DC-439C-8A2B-F9F6EAFF19CA}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2866,7 +3426,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2878,7 +3438,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493289664"/>
@@ -2925,7 +3484,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2937,7 +3496,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493293272"/>
@@ -2954,6 +3512,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -2967,7 +3526,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2979,19 +3538,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3014,9 +3565,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3028,7 +3578,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3048,7 +3598,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3068,6 +3618,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3076,26 +3627,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3107,7 +3638,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>@1</c:v>
+            <c:strRef>
+              <c:f>"@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3133,6 +3672,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Delicious cum'!$A$15:$A$24</c:f>
@@ -3174,7 +3716,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Delicious cum'!$H$15:$H$24</c:f>
+              <c:f>'Delicious cum'!$I$15:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3197,10 +3739,10 @@
                   <c:v>36.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.950000000000003</c:v>
+                  <c:v>34.95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.049999999999997</c:v>
+                  <c:v>34.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>33.47</c:v>
@@ -3212,17 +3754,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-73DD-45F8-A9E7-2BBFE6A0C363}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>@3</c:v>
+            <c:strRef>
+              <c:f>"@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3248,6 +3793,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Delicious cum'!$A$15:$A$24</c:f>
@@ -3289,12 +3837,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Delicious cum'!$J$15:$J$24</c:f>
+              <c:f>'Delicious cum'!$K$15:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>34.549999999999997</c:v>
+                  <c:v>34.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>38.44</c:v>
@@ -3303,10 +3851,10 @@
                   <c:v>37.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.409999999999997</c:v>
+                  <c:v>36.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.549999999999997</c:v>
+                  <c:v>32.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>31.23</c:v>
@@ -3327,17 +3875,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-73DD-45F8-A9E7-2BBFE6A0C363}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>@5</c:v>
+            <c:strRef>
+              <c:f>"@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3363,6 +3914,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Delicious cum'!$A$15:$A$24</c:f>
@@ -3404,7 +3958,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Delicious cum'!$L$15:$L$24</c:f>
+              <c:f>'Delicious cum'!$M$15:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3442,11 +3996,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-73DD-45F8-A9E7-2BBFE6A0C363}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3504,7 +4053,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3516,7 +4065,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493289664"/>
@@ -3563,7 +4111,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3575,7 +4123,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493293272"/>
@@ -3592,6 +4139,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -3605,7 +4153,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3617,19 +4165,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3652,9 +4192,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3666,7 +4205,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3680,6 +4219,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3693,7 +4233,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3705,7 +4245,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3719,7 +4258,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>mAP</c:v>
+            <c:strRef>
+              <c:f>"mAP"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3745,6 +4292,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex cumsum'!$A$15:$A$24</c:f>
@@ -3786,7 +4336,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Delicious cum'!$N$3:$N$12</c:f>
+              <c:f>'Delicious cum'!$O$3:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3803,7 +4353,7 @@
                   <c:v>6.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4400000000000004</c:v>
+                  <c:v>4.44</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.82</c:v>
@@ -3824,11 +4374,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-49D8-4D47-AF99-4905C3B8E7EC}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3872,7 +4417,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3884,7 +4429,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776956592"/>
@@ -3931,7 +4475,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3943,7 +4487,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776959216"/>
@@ -3960,13 +4503,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3989,9 +4525,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4003,7 +4538,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4023,7 +4558,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4043,6 +4578,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4051,26 +4587,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4082,7 +4598,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>@1</c:v>
+            <c:strRef>
+              <c:f>"@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4108,6 +4632,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex cumsum'!$A$15:$A$24</c:f>
@@ -4149,7 +4676,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'bibtex cumsum'!$H$3:$H$12</c:f>
+              <c:f>'bibtex cumsum'!$I$3:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4187,17 +4714,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4BC0-498E-BC73-2A20E98088CF}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>@3</c:v>
+            <c:strRef>
+              <c:f>"@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4223,6 +4753,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex cumsum'!$A$15:$A$24</c:f>
@@ -4264,7 +4797,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'bibtex cumsum'!$J$3:$J$12</c:f>
+              <c:f>'bibtex cumsum'!$K$3:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4281,7 +4814,7 @@
                   <c:v>37.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.659999999999997</c:v>
+                  <c:v>34.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>31.76</c:v>
@@ -4302,17 +4835,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4BC0-498E-BC73-2A20E98088CF}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>@5</c:v>
+            <c:strRef>
+              <c:f>"@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4338,6 +4874,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex cumsum'!$A$15:$A$24</c:f>
@@ -4379,7 +4918,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'bibtex cumsum'!$L$3:$L$12</c:f>
+              <c:f>'bibtex cumsum'!$M$3:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4399,7 +4938,7 @@
                   <c:v>36.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.369999999999997</c:v>
+                  <c:v>32.37</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>26.96</c:v>
@@ -4411,17 +4950,12 @@
                   <c:v>14.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.4600000000000009</c:v>
+                  <c:v>9.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4BC0-498E-BC73-2A20E98088CF}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4479,7 +5013,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4491,7 +5025,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493289664"/>
@@ -4538,7 +5071,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4550,7 +5083,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493293272"/>
@@ -4567,6 +5099,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -4580,7 +5113,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4592,19 +5125,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4627,9 +5152,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4641,7 +5165,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4661,7 +5185,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4681,6 +5205,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4689,26 +5214,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4720,7 +5225,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>@1</c:v>
+            <c:strRef>
+              <c:f>"@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4746,6 +5259,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex cumsum'!$A$15:$A$24</c:f>
@@ -4825,17 +5341,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-767B-468A-8214-C582AC153908}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>@3</c:v>
+            <c:strRef>
+              <c:f>"@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4861,6 +5380,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex cumsum'!$A$15:$A$24</c:f>
@@ -4940,17 +5462,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-767B-468A-8214-C582AC153908}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>@5</c:v>
+            <c:strRef>
+              <c:f>"@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4976,6 +5501,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex cumsum'!$A$15:$A$24</c:f>
@@ -5055,11 +5583,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-767B-468A-8214-C582AC153908}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5117,7 +5640,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5129,7 +5652,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493289664"/>
@@ -5176,7 +5698,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5188,7 +5710,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493293272"/>
@@ -5205,6 +5726,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -5218,7 +5740,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5230,19 +5752,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5265,9 +5779,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5279,7 +5792,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -5299,7 +5812,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5319,6 +5832,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5327,26 +5841,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5358,7 +5852,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>@1</c:v>
+            <c:strRef>
+              <c:f>"@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -5384,6 +5886,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex cumsum'!$A$15:$A$24</c:f>
@@ -5425,7 +5930,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'bibtex cumsum'!$H$15:$H$24</c:f>
+              <c:f>'bibtex cumsum'!$I$15:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5463,17 +5968,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC01-4D86-A409-D6C908F8F73C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>@3</c:v>
+            <c:strRef>
+              <c:f>"@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -5499,6 +6007,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex cumsum'!$A$15:$A$24</c:f>
@@ -5540,7 +6051,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'bibtex cumsum'!$J$15:$J$24</c:f>
+              <c:f>'bibtex cumsum'!$K$15:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5554,10 +6065,10 @@
                   <c:v>43.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.659999999999997</c:v>
+                  <c:v>40.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.049999999999997</c:v>
+                  <c:v>37.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>33.49</c:v>
@@ -5578,17 +6089,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC01-4D86-A409-D6C908F8F73C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>@5</c:v>
+            <c:strRef>
+              <c:f>"@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -5614,6 +6128,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex cumsum'!$A$15:$A$24</c:f>
@@ -5655,7 +6172,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'bibtex cumsum'!$L$15:$L$24</c:f>
+              <c:f>'bibtex cumsum'!$M$15:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5675,7 +6192,7 @@
                   <c:v>38.49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.020000000000003</c:v>
+                  <c:v>34.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>28.94</c:v>
@@ -5693,11 +6210,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EC01-4D86-A409-D6C908F8F73C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5755,7 +6267,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5767,7 +6279,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493289664"/>
@@ -5814,7 +6325,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5826,7 +6337,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493293272"/>
@@ -5843,6 +6353,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -5856,7 +6367,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5868,19 +6379,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5903,9 +6406,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5917,7 +6419,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -5931,6 +6433,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5944,7 +6447,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5956,7 +6459,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5970,7 +6472,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>mAP</c:v>
+            <c:strRef>
+              <c:f>"mAP"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -5996,6 +6506,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex cumsum'!$A$15:$A$24</c:f>
@@ -6037,7 +6550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'bibtex cumsum'!$N$3:$N$12</c:f>
+              <c:f>'bibtex cumsum'!$O$3:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6051,7 +6564,7 @@
                   <c:v>21.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.760000000000002</c:v>
+                  <c:v>17.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14.27</c:v>
@@ -6060,7 +6573,7 @@
                   <c:v>10.91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0399999999999991</c:v>
+                  <c:v>8.04</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.64</c:v>
@@ -6075,11 +6588,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-30C9-47AB-BF38-AEC01A029D29}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6123,7 +6631,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6135,7 +6643,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776956592"/>
@@ -6182,7 +6689,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6194,7 +6701,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776959216"/>
@@ -6211,13 +6717,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -6240,9 +6739,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6254,7 +6752,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -6274,7 +6772,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6294,6 +6792,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6302,26 +6801,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6333,7 +6812,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>P@1</c:v>
+            <c:strRef>
+              <c:f>"P@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -6359,6 +6846,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex rank'!$A$15:$A$24</c:f>
@@ -6438,17 +6928,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B510-4F92-85EB-4756A891245B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>P@3</c:v>
+            <c:strRef>
+              <c:f>"P@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -6474,6 +6967,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex rank'!$A$15:$A$24</c:f>
@@ -6526,7 +7022,7 @@
                   <c:v>34.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.409999999999997</c:v>
+                  <c:v>33.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>33.07</c:v>
@@ -6535,7 +7031,7 @@
                   <c:v>32.14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.229999999999997</c:v>
+                  <c:v>32.23</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>30.74</c:v>
@@ -6553,17 +7049,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B510-4F92-85EB-4756A891245B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>P@5</c:v>
+            <c:strRef>
+              <c:f>"P@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -6589,6 +7088,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex rank'!$A$15:$A$24</c:f>
@@ -6668,11 +7170,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B510-4F92-85EB-4756A891245B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6730,7 +7227,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6742,7 +7239,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493289664"/>
@@ -6789,7 +7285,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6801,7 +7297,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493293272"/>
@@ -6818,6 +7313,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -6831,7 +7327,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6843,19 +7339,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -6878,9 +7366,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6892,7 +7379,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -6912,7 +7399,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6932,6 +7419,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6940,26 +7428,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6971,7 +7439,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>@1</c:v>
+            <c:strRef>
+              <c:f>"@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -6997,6 +7473,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex rank'!$A$15:$A$24</c:f>
@@ -7067,7 +7546,7 @@
                   <c:v>38.99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.229999999999997</c:v>
+                  <c:v>36.23</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>30.48</c:v>
@@ -7076,17 +7555,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C6F-4943-B83D-D73D19291B21}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>@3</c:v>
+            <c:strRef>
+              <c:f>"@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -7112,6 +7594,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex rank'!$A$15:$A$24</c:f>
@@ -7170,13 +7655,13 @@
                   <c:v>41.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.380000000000003</c:v>
+                  <c:v>40.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.130000000000003</c:v>
+                  <c:v>40.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.380000000000003</c:v>
+                  <c:v>37.38</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>32.56</c:v>
@@ -7191,17 +7676,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9C6F-4943-B83D-D73D19291B21}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>@5</c:v>
+            <c:strRef>
+              <c:f>"@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -7227,6 +7715,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex rank'!$A$15:$A$24</c:f>
@@ -7294,23 +7785,18 @@
                   <c:v>37.81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.880000000000003</c:v>
+                  <c:v>32.88</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>28.79</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.920000000000002</c:v>
+                  <c:v>19.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9C6F-4943-B83D-D73D19291B21}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7368,7 +7854,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7380,7 +7866,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493289664"/>
@@ -7427,7 +7912,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7439,7 +7924,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493293272"/>
@@ -7456,6 +7940,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -7469,7 +7954,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7481,19 +7966,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -7516,9 +7993,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7530,7 +8006,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -7550,7 +8026,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7570,6 +8046,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7578,26 +8055,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7609,7 +8066,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>@1</c:v>
+            <c:strRef>
+              <c:f>"@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -7635,6 +8100,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex rank'!$A$15:$A$24</c:f>
@@ -7714,17 +8182,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F492-4078-9579-510A162DCC78}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>@3</c:v>
+            <c:strRef>
+              <c:f>"@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -7750,6 +8221,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex rank'!$A$15:$A$24</c:f>
@@ -7829,17 +8303,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F492-4078-9579-510A162DCC78}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>@5</c:v>
+            <c:strRef>
+              <c:f>"@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -7865,6 +8342,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex rank'!$A$15:$A$24</c:f>
@@ -7944,11 +8424,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F492-4078-9579-510A162DCC78}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8006,7 +8481,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8018,7 +8493,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493289664"/>
@@ -8065,7 +8539,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8077,7 +8551,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493293272"/>
@@ -8094,6 +8567,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -8107,7 +8581,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -8119,19 +8593,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -8154,9 +8620,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8168,7 +8633,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -8188,7 +8653,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8208,6 +8673,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8216,26 +8682,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8247,7 +8693,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>@1</c:v>
+            <c:strRef>
+              <c:f>"@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -8273,6 +8727,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex rank'!$A$15:$A$24</c:f>
@@ -8343,7 +8800,7 @@
                   <c:v>38.99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.229999999999997</c:v>
+                  <c:v>36.23</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>30.48</c:v>
@@ -8352,17 +8809,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A291-420E-879C-C13B24327900}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>@3</c:v>
+            <c:strRef>
+              <c:f>"@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -8388,6 +8848,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex rank'!$A$15:$A$24</c:f>
@@ -8467,17 +8930,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A291-420E-879C-C13B24327900}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>@5</c:v>
+            <c:strRef>
+              <c:f>"@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -8503,6 +8969,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'bibtex rank'!$A$15:$A$24</c:f>
@@ -8582,11 +9051,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A291-420E-879C-C13B24327900}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8644,7 +9108,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8656,7 +9120,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493289664"/>
@@ -8703,7 +9166,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8715,7 +9178,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="493293272"/>
@@ -8732,6 +9194,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -8745,7 +9208,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -8757,19 +9220,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -8792,9 +9247,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16951,7 +17405,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -16965,20 +17419,169 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7595177-5346-4790-B6F2-73A7620E98B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="518160" y="4305300"/>
+        <a:ext cx="3855720" cy="2512060"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4648200" y="4259580"/>
+        <a:ext cx="4541520" cy="2512060"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="563880" y="7086600"/>
+        <a:ext cx="3855720" cy="2519680"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5486400" y="7086600"/>
+        <a:ext cx="3779520" cy="2519680"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>259976</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9654540" y="2212340"/>
+        <a:ext cx="2263775" cy="1751330"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="518160" y="4305300"/>
+        <a:ext cx="3855720" cy="2512060"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17001,22 +17604,14 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C497388-40AB-47C1-B30C-49994E674AD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4648200" y="4259580"/>
+        <a:ext cx="3855720" cy="2512060"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17039,22 +17634,14 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9293E1EE-7EA2-416E-AF91-241A5B79FE3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="563880" y="7086600"/>
+        <a:ext cx="3855720" cy="2519680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17077,22 +17664,14 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942B2419-64C5-400B-930F-7F0D083AFB4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4800600" y="7086600"/>
+        <a:ext cx="3779520" cy="2519680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17105,30 +17684,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>259976</xdr:colOff>
+      <xdr:colOff>206636</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:rowOff>63649</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8568A3-BD23-4529-B064-9D6F815E3928}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8915400" y="2204720"/>
+        <a:ext cx="2263775" cy="1795780"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17141,8 +17714,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -17156,22 +17729,14 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECEFBDC-BDFC-41AA-9BCA-F00D19E0CAD6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="518160" y="4305300"/>
+        <a:ext cx="3802380" cy="2512060"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17189,27 +17754,19 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F740BB9B-18C7-438A-921A-46565B88FA97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4594860" y="4259580"/>
+        <a:ext cx="4479290" cy="2512060"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17232,22 +17789,14 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93960163-CAC4-4181-8919-3755F91FB609}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="563880" y="7086600"/>
+        <a:ext cx="3802380" cy="2519680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17259,33 +17808,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF404726-B354-4016-BBEF-63CEA169F841}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="5415280" y="7086600"/>
+        <a:ext cx="3735070" cy="2519680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17297,228 +17838,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>206636</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>63649</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B544ADB1-4E7F-477A-8BB0-B7169786C580}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD51BD3-572A-45FD-8BA9-24C7156BEB00}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64618F5-028D-4723-938C-CB1414ABED23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D2FD8C-816C-4BA9-B171-040862F21BF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B12C4F-9853-45A8-98F2-34FB1F4E704C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>206636</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>63649</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79DF6002-2CE3-45F5-92F8-F73FEC125A88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="9476740" y="2204720"/>
+        <a:ext cx="2237105" cy="1795780"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -17574,7 +17912,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -17607,26 +17945,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -17659,23 +17980,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -17817,42 +18121,808 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F898892-245F-42D1-8BEB-C179A9D8E3B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A2:O24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetData>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>63.02</v>
+      </c>
+      <c r="C3">
+        <v>43.98</v>
+      </c>
+      <c r="D3">
+        <v>34.33</v>
+      </c>
+      <c r="E3">
+        <v>28.02</v>
+      </c>
+      <c r="F3">
+        <v>23.86</v>
+      </c>
+      <c r="I3">
+        <v>47.78</v>
+      </c>
+      <c r="J3">
+        <v>44.98</v>
+      </c>
+      <c r="K3">
+        <v>44.99</v>
+      </c>
+      <c r="L3">
+        <v>45.83</v>
+      </c>
+      <c r="M3">
+        <v>47.29</v>
+      </c>
+      <c r="O3">
+        <v>28.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>0.1</v>
+      </c>
+      <c r="B4">
+        <v>61.51</v>
+      </c>
+      <c r="C4">
+        <v>42.7</v>
+      </c>
+      <c r="D4">
+        <v>33.17</v>
+      </c>
+      <c r="E4">
+        <v>27.1</v>
+      </c>
+      <c r="F4">
+        <v>23.05</v>
+      </c>
+      <c r="I4">
+        <v>45.48</v>
+      </c>
+      <c r="J4">
+        <v>42.77</v>
+      </c>
+      <c r="K4">
+        <v>42.51</v>
+      </c>
+      <c r="L4">
+        <v>43.24</v>
+      </c>
+      <c r="M4">
+        <v>44.6</v>
+      </c>
+      <c r="O4">
+        <v>24.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>0.2</v>
+      </c>
+      <c r="B5">
+        <v>61.75</v>
+      </c>
+      <c r="C5">
+        <v>42.31</v>
+      </c>
+      <c r="D5">
+        <v>33.03</v>
+      </c>
+      <c r="E5">
+        <v>27.01</v>
+      </c>
+      <c r="F5">
+        <v>22.7</v>
+      </c>
+      <c r="I5">
+        <v>45.55</v>
+      </c>
+      <c r="J5">
+        <v>42.03</v>
+      </c>
+      <c r="K5">
+        <v>41.94</v>
+      </c>
+      <c r="L5">
+        <v>42.69</v>
+      </c>
+      <c r="M5">
+        <v>43.34</v>
+      </c>
+      <c r="O5">
+        <v>21.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>0.3</v>
+      </c>
+      <c r="B6">
+        <v>60.16</v>
+      </c>
+      <c r="C6">
+        <v>40.36</v>
+      </c>
+      <c r="D6">
+        <v>30.78</v>
+      </c>
+      <c r="E6">
+        <v>25.83</v>
+      </c>
+      <c r="F6">
+        <v>22.01</v>
+      </c>
+      <c r="I6">
+        <v>43.76</v>
+      </c>
+      <c r="J6">
+        <v>39.08</v>
+      </c>
+      <c r="K6">
+        <v>37.92</v>
+      </c>
+      <c r="L6">
+        <v>39.72</v>
+      </c>
+      <c r="M6">
+        <v>40.96</v>
+      </c>
+      <c r="O6">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>0.4</v>
+      </c>
+      <c r="B7">
+        <v>56.5</v>
+      </c>
+      <c r="C7">
+        <v>37.99</v>
+      </c>
+      <c r="D7">
+        <v>28.89</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>20.39</v>
+      </c>
+      <c r="I7">
+        <v>40.01</v>
+      </c>
+      <c r="J7">
+        <v>35.79</v>
+      </c>
+      <c r="K7">
+        <v>34.66</v>
+      </c>
+      <c r="L7">
+        <v>35.94</v>
+      </c>
+      <c r="M7">
+        <v>36.92</v>
+      </c>
+      <c r="O7">
+        <v>14.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>0.5</v>
+      </c>
+      <c r="B8">
+        <v>53.36</v>
+      </c>
+      <c r="C8">
+        <v>35.55</v>
+      </c>
+      <c r="D8">
+        <v>27.18</v>
+      </c>
+      <c r="E8">
+        <v>22.14</v>
+      </c>
+      <c r="F8">
+        <v>18.53</v>
+      </c>
+      <c r="I8">
+        <v>36.79</v>
+      </c>
+      <c r="J8">
+        <v>32.72</v>
+      </c>
+      <c r="K8">
+        <v>31.76</v>
+      </c>
+      <c r="L8">
+        <v>32.06</v>
+      </c>
+      <c r="M8">
+        <v>32.37</v>
+      </c>
+      <c r="O8">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>0.6</v>
+      </c>
+      <c r="B9">
+        <v>50.66</v>
+      </c>
+      <c r="C9">
+        <v>32.98</v>
+      </c>
+      <c r="D9">
+        <v>24.52</v>
+      </c>
+      <c r="E9">
+        <v>19.47</v>
+      </c>
+      <c r="F9">
+        <v>16.03</v>
+      </c>
+      <c r="I9">
+        <v>34.11</v>
+      </c>
+      <c r="J9">
+        <v>29.42</v>
+      </c>
+      <c r="K9">
+        <v>27.7</v>
+      </c>
+      <c r="L9">
+        <v>27.2</v>
+      </c>
+      <c r="M9">
+        <v>26.96</v>
+      </c>
+      <c r="O9">
+        <v>8.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>0.7</v>
+      </c>
+      <c r="B10">
+        <v>48.39</v>
+      </c>
+      <c r="C10">
+        <v>29.98</v>
+      </c>
+      <c r="D10">
+        <v>21.43</v>
+      </c>
+      <c r="E10">
+        <v>16.64</v>
+      </c>
+      <c r="F10">
+        <v>13.83</v>
+      </c>
+      <c r="I10">
+        <v>31.98</v>
+      </c>
+      <c r="J10">
+        <v>26.08</v>
+      </c>
+      <c r="K10">
+        <v>23.48</v>
+      </c>
+      <c r="L10">
+        <v>22.49</v>
+      </c>
+      <c r="M10">
+        <v>22.55</v>
+      </c>
+      <c r="O10">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>0.8</v>
+      </c>
+      <c r="B11">
+        <v>41.55</v>
+      </c>
+      <c r="C11">
+        <v>22.86</v>
+      </c>
+      <c r="D11">
+        <v>15.55</v>
+      </c>
+      <c r="E11">
+        <v>11.86</v>
+      </c>
+      <c r="F11">
+        <v>9.62</v>
+      </c>
+      <c r="I11">
+        <v>26.41</v>
+      </c>
+      <c r="J11">
+        <v>18.85</v>
+      </c>
+      <c r="K11">
+        <v>16.07</v>
+      </c>
+      <c r="L11">
+        <v>15.11</v>
+      </c>
+      <c r="M11">
+        <v>14.75</v>
+      </c>
+      <c r="O11">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>0.9</v>
+      </c>
+      <c r="B12">
+        <v>27.12</v>
+      </c>
+      <c r="C12">
+        <v>13.72</v>
+      </c>
+      <c r="D12">
+        <v>9.16</v>
+      </c>
+      <c r="E12">
+        <v>7.07</v>
+      </c>
+      <c r="F12">
+        <v>6.47</v>
+      </c>
+      <c r="I12">
+        <v>15.91</v>
+      </c>
+      <c r="J12">
+        <v>10.34</v>
+      </c>
+      <c r="K12">
+        <v>8.64</v>
+      </c>
+      <c r="L12">
+        <v>8.42</v>
+      </c>
+      <c r="M12">
+        <v>9.46</v>
+      </c>
+      <c r="O12">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>63.02</v>
+      </c>
+      <c r="C15">
+        <v>56.35</v>
+      </c>
+      <c r="D15">
+        <v>55.19</v>
+      </c>
+      <c r="E15">
+        <v>55.33</v>
+      </c>
+      <c r="F15">
+        <v>55.98</v>
+      </c>
+      <c r="I15">
+        <v>47.78</v>
+      </c>
+      <c r="J15">
+        <v>46.36</v>
+      </c>
+      <c r="K15">
+        <v>47.17</v>
+      </c>
+      <c r="L15">
+        <v>48.12</v>
+      </c>
+      <c r="M15">
+        <v>49.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>0.1</v>
+      </c>
+      <c r="B16">
+        <v>61.51</v>
+      </c>
+      <c r="C16">
+        <v>54.6</v>
+      </c>
+      <c r="D16">
+        <v>53.14</v>
+      </c>
+      <c r="E16">
+        <v>53.31</v>
+      </c>
+      <c r="F16">
+        <v>53.89</v>
+      </c>
+      <c r="I16">
+        <v>45.48</v>
+      </c>
+      <c r="J16">
+        <v>43.87</v>
+      </c>
+      <c r="K16">
+        <v>44.27</v>
+      </c>
+      <c r="L16">
+        <v>45.15</v>
+      </c>
+      <c r="M16">
+        <v>46.07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>0.2</v>
+      </c>
+      <c r="B17">
+        <v>61.75</v>
+      </c>
+      <c r="C17">
+        <v>54.26</v>
+      </c>
+      <c r="D17">
+        <v>52.96</v>
+      </c>
+      <c r="E17">
+        <v>53.14</v>
+      </c>
+      <c r="F17">
+        <v>53.36</v>
+      </c>
+      <c r="I17">
+        <v>45.55</v>
+      </c>
+      <c r="J17">
+        <v>43.31</v>
+      </c>
+      <c r="K17">
+        <v>43.82</v>
+      </c>
+      <c r="L17">
+        <v>44.7</v>
+      </c>
+      <c r="M17">
+        <v>45.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>0.3</v>
+      </c>
+      <c r="B18">
+        <v>60.16</v>
+      </c>
+      <c r="C18">
+        <v>52.2</v>
+      </c>
+      <c r="D18">
+        <v>50.33</v>
+      </c>
+      <c r="E18">
+        <v>50.91</v>
+      </c>
+      <c r="F18">
+        <v>51.46</v>
+      </c>
+      <c r="I18">
+        <v>43.76</v>
+      </c>
+      <c r="J18">
+        <v>40.8</v>
+      </c>
+      <c r="K18">
+        <v>40.66</v>
+      </c>
+      <c r="L18">
+        <v>41.85</v>
+      </c>
+      <c r="M18">
+        <v>42.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>0.4</v>
+      </c>
+      <c r="B19">
+        <v>56.5</v>
+      </c>
+      <c r="C19">
+        <v>49.07</v>
+      </c>
+      <c r="D19">
+        <v>47.1</v>
+      </c>
+      <c r="E19">
+        <v>47.36</v>
+      </c>
+      <c r="F19">
+        <v>47.77</v>
+      </c>
+      <c r="I19">
+        <v>40.01</v>
+      </c>
+      <c r="J19">
+        <v>37.35</v>
+      </c>
+      <c r="K19">
+        <v>37.05</v>
+      </c>
+      <c r="L19">
+        <v>37.87</v>
+      </c>
+      <c r="M19">
+        <v>38.49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>0.5</v>
+      </c>
+      <c r="B20">
+        <v>53.36</v>
+      </c>
+      <c r="C20">
+        <v>45.76</v>
+      </c>
+      <c r="D20">
+        <v>43.78</v>
+      </c>
+      <c r="E20">
+        <v>43.57</v>
+      </c>
+      <c r="F20">
+        <v>43.62</v>
+      </c>
+      <c r="I20">
+        <v>36.79</v>
+      </c>
+      <c r="J20">
+        <v>33.97</v>
+      </c>
+      <c r="K20">
+        <v>33.49</v>
+      </c>
+      <c r="L20">
+        <v>33.77</v>
+      </c>
+      <c r="M20">
+        <v>34.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>0.6</v>
+      </c>
+      <c r="B21">
+        <v>50.66</v>
+      </c>
+      <c r="C21">
+        <v>42.06</v>
+      </c>
+      <c r="D21">
+        <v>39.5</v>
+      </c>
+      <c r="E21">
+        <v>38.79</v>
+      </c>
+      <c r="F21">
+        <v>38.54</v>
+      </c>
+      <c r="I21">
+        <v>34.11</v>
+      </c>
+      <c r="J21">
+        <v>30.21</v>
+      </c>
+      <c r="K21">
+        <v>29.18</v>
+      </c>
+      <c r="L21">
+        <v>28.98</v>
+      </c>
+      <c r="M21">
+        <v>28.94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>0.7</v>
+      </c>
+      <c r="B22">
+        <v>48.39</v>
+      </c>
+      <c r="C22">
+        <v>38.9</v>
+      </c>
+      <c r="D22">
+        <v>35.79</v>
+      </c>
+      <c r="E22">
+        <v>34.77</v>
+      </c>
+      <c r="F22">
+        <v>34.65</v>
+      </c>
+      <c r="I22">
+        <v>31.98</v>
+      </c>
+      <c r="J22">
+        <v>27.31</v>
+      </c>
+      <c r="K22">
+        <v>25.77</v>
+      </c>
+      <c r="L22">
+        <v>25.28</v>
+      </c>
+      <c r="M22">
+        <v>25.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>0.8</v>
+      </c>
+      <c r="B23">
+        <v>41.55</v>
+      </c>
+      <c r="C23">
+        <v>30.76</v>
+      </c>
+      <c r="D23">
+        <v>27.63</v>
+      </c>
+      <c r="E23">
+        <v>26.78</v>
+      </c>
+      <c r="F23">
+        <v>26.54</v>
+      </c>
+      <c r="I23">
+        <v>26.41</v>
+      </c>
+      <c r="J23">
+        <v>20.55</v>
+      </c>
+      <c r="K23">
+        <v>18.89</v>
+      </c>
+      <c r="L23">
+        <v>18.5</v>
+      </c>
+      <c r="M23">
+        <v>18.43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>0.9</v>
+      </c>
+      <c r="B24">
+        <v>27.12</v>
+      </c>
+      <c r="C24">
+        <v>19.6</v>
+      </c>
+      <c r="D24">
+        <v>17.66</v>
+      </c>
+      <c r="E24">
+        <v>17.23</v>
+      </c>
+      <c r="F24">
+        <v>17.93</v>
+      </c>
+      <c r="I24">
+        <v>15.91</v>
+      </c>
+      <c r="J24">
+        <v>12.1</v>
+      </c>
+      <c r="K24">
+        <v>11.18</v>
+      </c>
+      <c r="L24">
+        <v>11.13</v>
+      </c>
+      <c r="M24">
+        <v>11.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A2:N24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <sheetData>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>63.02</v>
@@ -17893,37 +18963,37 @@
         <v>0.1</v>
       </c>
       <c r="B4">
-        <v>61.51</v>
+        <v>62.9</v>
       </c>
       <c r="C4">
-        <v>42.7</v>
+        <v>43.58</v>
       </c>
       <c r="D4">
-        <v>33.17</v>
+        <v>34.14</v>
       </c>
       <c r="E4">
-        <v>27.1</v>
+        <v>28.27</v>
       </c>
       <c r="F4">
-        <v>23.05</v>
+        <v>24.06</v>
       </c>
       <c r="H4">
-        <v>45.48</v>
+        <v>47.48</v>
       </c>
       <c r="I4">
-        <v>42.77</v>
+        <v>44.39</v>
       </c>
       <c r="J4">
-        <v>42.51</v>
+        <v>44.53</v>
       </c>
       <c r="K4">
-        <v>43.24</v>
+        <v>46.13</v>
       </c>
       <c r="L4">
-        <v>44.6</v>
+        <v>47.59</v>
       </c>
       <c r="N4">
-        <v>24.42</v>
+        <v>27.13</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -17931,37 +19001,37 @@
         <v>0.2</v>
       </c>
       <c r="B5">
-        <v>61.75</v>
+        <v>62.19</v>
       </c>
       <c r="C5">
-        <v>42.31</v>
+        <v>43.34</v>
       </c>
       <c r="D5">
-        <v>33.03</v>
+        <v>33.41</v>
       </c>
       <c r="E5">
-        <v>27.01</v>
+        <v>27.53</v>
       </c>
       <c r="F5">
-        <v>22.7</v>
+        <v>23.11</v>
       </c>
       <c r="H5">
-        <v>45.55</v>
+        <v>46.18</v>
       </c>
       <c r="I5">
-        <v>42.03</v>
+        <v>43.75</v>
       </c>
       <c r="J5">
-        <v>41.94</v>
+        <v>43.2</v>
       </c>
       <c r="K5">
-        <v>42.69</v>
+        <v>44.25</v>
       </c>
       <c r="L5">
-        <v>43.34</v>
+        <v>44.88</v>
       </c>
       <c r="N5">
-        <v>21.68</v>
+        <v>24.36</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -17969,37 +19039,37 @@
         <v>0.3</v>
       </c>
       <c r="B6">
-        <v>60.16</v>
+        <v>61.55</v>
       </c>
       <c r="C6">
-        <v>40.36</v>
+        <v>42.21</v>
       </c>
       <c r="D6">
-        <v>30.78</v>
+        <v>33.07</v>
       </c>
       <c r="E6">
-        <v>25.83</v>
+        <v>27.14</v>
       </c>
       <c r="F6">
-        <v>22.01</v>
+        <v>23.29</v>
       </c>
       <c r="H6">
-        <v>43.76</v>
+        <v>45.54</v>
       </c>
       <c r="I6">
-        <v>39.08</v>
+        <v>41.81</v>
       </c>
       <c r="J6">
-        <v>37.92</v>
+        <v>41.99</v>
       </c>
       <c r="K6">
-        <v>39.72</v>
+        <v>42.97</v>
       </c>
       <c r="L6">
-        <v>40.96</v>
+        <v>44.77</v>
       </c>
       <c r="N6">
-        <v>17.760000000000002</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -18007,37 +19077,37 @@
         <v>0.4</v>
       </c>
       <c r="B7">
-        <v>56.5</v>
+        <v>60.95</v>
       </c>
       <c r="C7">
-        <v>37.99</v>
+        <v>41.81</v>
       </c>
       <c r="D7">
-        <v>28.89</v>
+        <v>32.14</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>26.04</v>
       </c>
       <c r="F7">
-        <v>20.39</v>
+        <v>21.93</v>
       </c>
       <c r="H7">
-        <v>40.01</v>
+        <v>44.74</v>
       </c>
       <c r="I7">
-        <v>35.79</v>
+        <v>41.16</v>
       </c>
       <c r="J7">
-        <v>34.659999999999997</v>
+        <v>40.38</v>
       </c>
       <c r="K7">
-        <v>35.94</v>
+        <v>40.66</v>
       </c>
       <c r="L7">
-        <v>36.92</v>
+        <v>41.38</v>
       </c>
       <c r="N7">
-        <v>14.27</v>
+        <v>20.44</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -18045,37 +19115,37 @@
         <v>0.5</v>
       </c>
       <c r="B8">
-        <v>53.36</v>
+        <v>60.04</v>
       </c>
       <c r="C8">
-        <v>35.549999999999997</v>
+        <v>40.95</v>
       </c>
       <c r="D8">
-        <v>27.18</v>
+        <v>32.23</v>
       </c>
       <c r="E8">
-        <v>22.14</v>
+        <v>26.68</v>
       </c>
       <c r="F8">
-        <v>18.53</v>
+        <v>22.62</v>
       </c>
       <c r="H8">
-        <v>36.79</v>
+        <v>43.66</v>
       </c>
       <c r="I8">
-        <v>32.72</v>
+        <v>39.92</v>
       </c>
       <c r="J8">
-        <v>31.76</v>
+        <v>40.13</v>
       </c>
       <c r="K8">
-        <v>32.06</v>
+        <v>41.38</v>
       </c>
       <c r="L8">
-        <v>32.369999999999997</v>
+        <v>42.43</v>
       </c>
       <c r="N8">
-        <v>10.91</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -18083,37 +19153,37 @@
         <v>0.6</v>
       </c>
       <c r="B9">
-        <v>50.66</v>
+        <v>57.53</v>
       </c>
       <c r="C9">
-        <v>32.979999999999997</v>
+        <v>39.98</v>
       </c>
       <c r="D9">
-        <v>24.52</v>
+        <v>30.74</v>
       </c>
       <c r="E9">
-        <v>19.47</v>
+        <v>24.72</v>
       </c>
       <c r="F9">
-        <v>16.03</v>
+        <v>20.76</v>
       </c>
       <c r="H9">
-        <v>34.11</v>
+        <v>41.04</v>
       </c>
       <c r="I9">
-        <v>29.42</v>
+        <v>38.22</v>
       </c>
       <c r="J9">
-        <v>27.7</v>
+        <v>37.38</v>
       </c>
       <c r="K9">
-        <v>27.2</v>
+        <v>37.3</v>
       </c>
       <c r="L9">
-        <v>26.96</v>
+        <v>37.81</v>
       </c>
       <c r="N9">
-        <v>8.0399999999999991</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -18121,37 +19191,37 @@
         <v>0.7</v>
       </c>
       <c r="B10">
-        <v>48.39</v>
+        <v>55.59</v>
       </c>
       <c r="C10">
-        <v>29.98</v>
+        <v>36.92</v>
       </c>
       <c r="D10">
-        <v>21.43</v>
+        <v>27.59</v>
       </c>
       <c r="E10">
-        <v>16.64</v>
+        <v>22.31</v>
       </c>
       <c r="F10">
-        <v>13.83</v>
+        <v>18.62</v>
       </c>
       <c r="H10">
-        <v>31.98</v>
+        <v>38.99</v>
       </c>
       <c r="I10">
-        <v>26.08</v>
+        <v>34.36</v>
       </c>
       <c r="J10">
-        <v>23.48</v>
+        <v>32.56</v>
       </c>
       <c r="K10">
-        <v>22.49</v>
+        <v>32.65</v>
       </c>
       <c r="L10">
-        <v>22.55</v>
+        <v>32.88</v>
       </c>
       <c r="N10">
-        <v>6.64</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -18159,37 +19229,37 @@
         <v>0.8</v>
       </c>
       <c r="B11">
-        <v>41.55</v>
+        <v>52.92</v>
       </c>
       <c r="C11">
-        <v>22.86</v>
+        <v>33.72</v>
       </c>
       <c r="D11">
-        <v>15.55</v>
+        <v>24.78</v>
       </c>
       <c r="E11">
-        <v>11.86</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>9.6199999999999992</v>
+        <v>16.79</v>
       </c>
       <c r="H11">
-        <v>26.41</v>
+        <v>36.23</v>
       </c>
       <c r="I11">
-        <v>18.850000000000001</v>
+        <v>30.46</v>
       </c>
       <c r="J11">
-        <v>16.07</v>
+        <v>28.35</v>
       </c>
       <c r="K11">
-        <v>15.11</v>
+        <v>28.39</v>
       </c>
       <c r="L11">
-        <v>14.75</v>
+        <v>28.79</v>
       </c>
       <c r="N11">
-        <v>4.79</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -18197,48 +19267,48 @@
         <v>0.9</v>
       </c>
       <c r="B12">
-        <v>27.12</v>
+        <v>46.68</v>
       </c>
       <c r="C12">
-        <v>13.72</v>
+        <v>27.67</v>
       </c>
       <c r="D12">
-        <v>9.16</v>
+        <v>19.79</v>
       </c>
       <c r="E12">
-        <v>7.07</v>
+        <v>15.2</v>
       </c>
       <c r="F12">
-        <v>6.47</v>
+        <v>12.42</v>
       </c>
       <c r="H12">
-        <v>15.91</v>
+        <v>30.48</v>
       </c>
       <c r="I12">
-        <v>10.34</v>
+        <v>23.71</v>
       </c>
       <c r="J12">
-        <v>8.64</v>
+        <v>21.38</v>
       </c>
       <c r="K12">
-        <v>8.42</v>
+        <v>20.25</v>
       </c>
       <c r="L12">
-        <v>9.4600000000000009</v>
+        <v>19.92</v>
       </c>
       <c r="N12">
-        <v>2.98</v>
+        <v>5.94</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="2:8">
       <c r="B14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>0</v>
       </c>
@@ -18273,39 +19343,39 @@
         <v>49.13</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>0.1</v>
       </c>
       <c r="B16">
-        <v>61.51</v>
+        <v>62.9</v>
       </c>
       <c r="C16">
-        <v>54.6</v>
+        <v>56.03</v>
       </c>
       <c r="D16">
-        <v>53.14</v>
+        <v>54.94</v>
       </c>
       <c r="E16">
-        <v>53.31</v>
+        <v>55.37</v>
       </c>
       <c r="F16">
-        <v>53.89</v>
+        <v>55.97</v>
       </c>
       <c r="H16">
-        <v>45.48</v>
+        <v>47.48</v>
       </c>
       <c r="I16">
-        <v>43.87</v>
+        <v>45.93</v>
       </c>
       <c r="J16">
-        <v>44.27</v>
+        <v>46.76</v>
       </c>
       <c r="K16">
-        <v>45.15</v>
+        <v>48.01</v>
       </c>
       <c r="L16">
-        <v>46.07</v>
+        <v>48.98</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -18313,34 +19383,34 @@
         <v>0.2</v>
       </c>
       <c r="B17">
-        <v>61.75</v>
+        <v>62.19</v>
       </c>
       <c r="C17">
-        <v>54.26</v>
+        <v>55.36</v>
       </c>
       <c r="D17">
-        <v>52.96</v>
+        <v>53.75</v>
       </c>
       <c r="E17">
-        <v>53.14</v>
+        <v>54.09</v>
       </c>
       <c r="F17">
-        <v>53.36</v>
+        <v>54.36</v>
       </c>
       <c r="H17">
-        <v>45.55</v>
+        <v>46.18</v>
       </c>
       <c r="I17">
-        <v>43.31</v>
+        <v>44.79</v>
       </c>
       <c r="J17">
-        <v>43.82</v>
+        <v>45.12</v>
       </c>
       <c r="K17">
-        <v>44.7</v>
+        <v>46.12</v>
       </c>
       <c r="L17">
-        <v>45.22</v>
+        <v>46.72</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -18348,34 +19418,34 @@
         <v>0.3</v>
       </c>
       <c r="B18">
-        <v>60.16</v>
+        <v>61.55</v>
       </c>
       <c r="C18">
-        <v>52.2</v>
+        <v>54.17</v>
       </c>
       <c r="D18">
-        <v>50.33</v>
+        <v>53.04</v>
       </c>
       <c r="E18">
-        <v>50.91</v>
+        <v>53.3</v>
       </c>
       <c r="F18">
-        <v>51.46</v>
+        <v>54</v>
       </c>
       <c r="H18">
-        <v>43.76</v>
+        <v>45.54</v>
       </c>
       <c r="I18">
-        <v>40.799999999999997</v>
+        <v>43.22</v>
       </c>
       <c r="J18">
-        <v>40.659999999999997</v>
+        <v>43.94</v>
       </c>
       <c r="K18">
-        <v>41.85</v>
+        <v>44.93</v>
       </c>
       <c r="L18">
-        <v>42.64</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -18383,34 +19453,34 @@
         <v>0.4</v>
       </c>
       <c r="B19">
-        <v>56.5</v>
+        <v>60.95</v>
       </c>
       <c r="C19">
-        <v>49.07</v>
+        <v>53.68</v>
       </c>
       <c r="D19">
-        <v>47.1</v>
+        <v>52.09</v>
       </c>
       <c r="E19">
-        <v>47.36</v>
+        <v>51.97</v>
       </c>
       <c r="F19">
-        <v>47.77</v>
+        <v>52.27</v>
       </c>
       <c r="H19">
-        <v>40.01</v>
+        <v>44.74</v>
       </c>
       <c r="I19">
-        <v>37.35</v>
+        <v>42.55</v>
       </c>
       <c r="J19">
-        <v>37.049999999999997</v>
+        <v>42.77</v>
       </c>
       <c r="K19">
-        <v>37.869999999999997</v>
+        <v>43.33</v>
       </c>
       <c r="L19">
-        <v>38.49</v>
+        <v>43.91</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -18418,34 +19488,34 @@
         <v>0.5</v>
       </c>
       <c r="B20">
-        <v>53.36</v>
+        <v>60.04</v>
       </c>
       <c r="C20">
-        <v>45.76</v>
+        <v>52.56</v>
       </c>
       <c r="D20">
-        <v>43.78</v>
+        <v>51.43</v>
       </c>
       <c r="E20">
-        <v>43.57</v>
+        <v>51.76</v>
       </c>
       <c r="F20">
-        <v>43.62</v>
+        <v>52.18</v>
       </c>
       <c r="H20">
-        <v>36.79</v>
+        <v>43.66</v>
       </c>
       <c r="I20">
-        <v>33.97</v>
+        <v>41.26</v>
       </c>
       <c r="J20">
-        <v>33.49</v>
+        <v>41.8</v>
       </c>
       <c r="K20">
-        <v>33.770000000000003</v>
+        <v>42.78</v>
       </c>
       <c r="L20">
-        <v>34.020000000000003</v>
+        <v>43.48</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -18453,34 +19523,34 @@
         <v>0.6</v>
       </c>
       <c r="B21">
-        <v>50.66</v>
+        <v>57.53</v>
       </c>
       <c r="C21">
-        <v>42.06</v>
+        <v>51.09</v>
       </c>
       <c r="D21">
-        <v>39.5</v>
+        <v>49.3</v>
       </c>
       <c r="E21">
-        <v>38.79</v>
+        <v>49.02</v>
       </c>
       <c r="F21">
-        <v>38.54</v>
+        <v>49.22</v>
       </c>
       <c r="H21">
-        <v>34.11</v>
+        <v>41.04</v>
       </c>
       <c r="I21">
-        <v>30.21</v>
+        <v>39.37</v>
       </c>
       <c r="J21">
-        <v>29.18</v>
+        <v>39.24</v>
       </c>
       <c r="K21">
-        <v>28.98</v>
+        <v>39.58</v>
       </c>
       <c r="L21">
-        <v>28.94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -18488,34 +19558,34 @@
         <v>0.7</v>
       </c>
       <c r="B22">
-        <v>48.39</v>
+        <v>55.59</v>
       </c>
       <c r="C22">
-        <v>38.9</v>
+        <v>47.99</v>
       </c>
       <c r="D22">
-        <v>35.79</v>
+        <v>45.71</v>
       </c>
       <c r="E22">
-        <v>34.770000000000003</v>
+        <v>45.43</v>
       </c>
       <c r="F22">
-        <v>34.65</v>
+        <v>45.53</v>
       </c>
       <c r="H22">
-        <v>31.98</v>
+        <v>38.99</v>
       </c>
       <c r="I22">
-        <v>27.31</v>
+        <v>36.14</v>
       </c>
       <c r="J22">
-        <v>25.77</v>
+        <v>35.49</v>
       </c>
       <c r="K22">
-        <v>25.28</v>
+        <v>35.76</v>
       </c>
       <c r="L22">
-        <v>25.33</v>
+        <v>36.06</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -18523,34 +19593,34 @@
         <v>0.8</v>
       </c>
       <c r="B23">
-        <v>41.55</v>
+        <v>52.92</v>
       </c>
       <c r="C23">
-        <v>30.76</v>
+        <v>44.07</v>
       </c>
       <c r="D23">
-        <v>27.63</v>
+        <v>41.48</v>
       </c>
       <c r="E23">
-        <v>26.78</v>
+        <v>41.04</v>
       </c>
       <c r="F23">
-        <v>26.54</v>
+        <v>41.13</v>
       </c>
       <c r="H23">
-        <v>26.41</v>
+        <v>36.23</v>
       </c>
       <c r="I23">
-        <v>20.55</v>
+        <v>32.23</v>
       </c>
       <c r="J23">
-        <v>18.89</v>
+        <v>31.23</v>
       </c>
       <c r="K23">
-        <v>18.5</v>
+        <v>31.31</v>
       </c>
       <c r="L23">
-        <v>18.43</v>
+        <v>31.59</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -18558,850 +19628,81 @@
         <v>0.9</v>
       </c>
       <c r="B24">
-        <v>27.12</v>
+        <v>46.68</v>
       </c>
       <c r="C24">
-        <v>19.600000000000001</v>
+        <v>36.34</v>
       </c>
       <c r="D24">
-        <v>17.66</v>
+        <v>33.39</v>
       </c>
       <c r="E24">
-        <v>17.23</v>
+        <v>32.32</v>
       </c>
       <c r="F24">
-        <v>17.93</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>15.91</v>
+        <v>30.48</v>
       </c>
       <c r="I24">
-        <v>12.1</v>
+        <v>25.14</v>
       </c>
       <c r="J24">
-        <v>11.18</v>
+        <v>23.69</v>
       </c>
       <c r="K24">
-        <v>11.13</v>
+        <v>23.17</v>
       </c>
       <c r="L24">
-        <v>11.75</v>
+        <v>23.05</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D24732-807E-43F5-BF20-F1F877A3D563}">
-  <dimension ref="A2:N24"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>63.02</v>
-      </c>
-      <c r="C3">
-        <v>43.98</v>
-      </c>
-      <c r="D3">
-        <v>34.33</v>
-      </c>
-      <c r="E3">
-        <v>28.02</v>
-      </c>
-      <c r="F3">
-        <v>23.86</v>
-      </c>
-      <c r="H3">
-        <v>47.78</v>
-      </c>
-      <c r="I3">
-        <v>44.98</v>
-      </c>
-      <c r="J3">
-        <v>44.99</v>
-      </c>
-      <c r="K3">
-        <v>45.83</v>
-      </c>
-      <c r="L3">
-        <v>47.29</v>
-      </c>
-      <c r="N3">
-        <v>28.92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
-        <v>0.1</v>
-      </c>
-      <c r="B4">
-        <v>62.9</v>
-      </c>
-      <c r="C4">
-        <v>43.58</v>
-      </c>
-      <c r="D4">
-        <v>34.14</v>
-      </c>
-      <c r="E4">
-        <v>28.27</v>
-      </c>
-      <c r="F4">
-        <v>24.06</v>
-      </c>
-      <c r="H4">
-        <v>47.48</v>
-      </c>
-      <c r="I4">
-        <v>44.39</v>
-      </c>
-      <c r="J4">
-        <v>44.53</v>
-      </c>
-      <c r="K4">
-        <v>46.13</v>
-      </c>
-      <c r="L4">
-        <v>47.59</v>
-      </c>
-      <c r="N4">
-        <v>27.13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
-        <v>0.2</v>
-      </c>
-      <c r="B5">
-        <v>62.19</v>
-      </c>
-      <c r="C5">
-        <v>43.34</v>
-      </c>
-      <c r="D5">
-        <v>33.409999999999997</v>
-      </c>
-      <c r="E5">
-        <v>27.53</v>
-      </c>
-      <c r="F5">
-        <v>23.11</v>
-      </c>
-      <c r="H5">
-        <v>46.18</v>
-      </c>
-      <c r="I5">
-        <v>43.75</v>
-      </c>
-      <c r="J5">
-        <v>43.2</v>
-      </c>
-      <c r="K5">
-        <v>44.25</v>
-      </c>
-      <c r="L5">
-        <v>44.88</v>
-      </c>
-      <c r="N5">
-        <v>24.36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6">
-        <v>0.3</v>
-      </c>
-      <c r="B6">
-        <v>61.55</v>
-      </c>
-      <c r="C6">
-        <v>42.21</v>
-      </c>
-      <c r="D6">
-        <v>33.07</v>
-      </c>
-      <c r="E6">
-        <v>27.14</v>
-      </c>
-      <c r="F6">
-        <v>23.29</v>
-      </c>
-      <c r="H6">
-        <v>45.54</v>
-      </c>
-      <c r="I6">
-        <v>41.81</v>
-      </c>
-      <c r="J6">
-        <v>41.99</v>
-      </c>
-      <c r="K6">
-        <v>42.97</v>
-      </c>
-      <c r="L6">
-        <v>44.77</v>
-      </c>
-      <c r="N6">
-        <v>22.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
-        <v>0.4</v>
-      </c>
-      <c r="B7">
-        <v>60.95</v>
-      </c>
-      <c r="C7">
-        <v>41.81</v>
-      </c>
-      <c r="D7">
-        <v>32.14</v>
-      </c>
-      <c r="E7">
-        <v>26.04</v>
-      </c>
-      <c r="F7">
-        <v>21.93</v>
-      </c>
-      <c r="H7">
-        <v>44.74</v>
-      </c>
-      <c r="I7">
-        <v>41.16</v>
-      </c>
-      <c r="J7">
-        <v>40.380000000000003</v>
-      </c>
-      <c r="K7">
-        <v>40.659999999999997</v>
-      </c>
-      <c r="L7">
-        <v>41.38</v>
-      </c>
-      <c r="N7">
-        <v>20.440000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
-        <v>0.5</v>
-      </c>
-      <c r="B8">
-        <v>60.04</v>
-      </c>
-      <c r="C8">
-        <v>40.950000000000003</v>
-      </c>
-      <c r="D8">
-        <v>32.229999999999997</v>
-      </c>
-      <c r="E8">
-        <v>26.68</v>
-      </c>
-      <c r="F8">
-        <v>22.62</v>
-      </c>
-      <c r="H8">
-        <v>43.66</v>
-      </c>
-      <c r="I8">
-        <v>39.92</v>
-      </c>
-      <c r="J8">
-        <v>40.130000000000003</v>
-      </c>
-      <c r="K8">
-        <v>41.38</v>
-      </c>
-      <c r="L8">
-        <v>42.43</v>
-      </c>
-      <c r="N8">
-        <v>18.45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
-        <v>0.6</v>
-      </c>
-      <c r="B9">
-        <v>57.53</v>
-      </c>
-      <c r="C9">
-        <v>39.979999999999997</v>
-      </c>
-      <c r="D9">
-        <v>30.74</v>
-      </c>
-      <c r="E9">
-        <v>24.72</v>
-      </c>
-      <c r="F9">
-        <v>20.76</v>
-      </c>
-      <c r="H9">
-        <v>41.04</v>
-      </c>
-      <c r="I9">
-        <v>38.22</v>
-      </c>
-      <c r="J9">
-        <v>37.380000000000003</v>
-      </c>
-      <c r="K9">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="L9">
-        <v>37.81</v>
-      </c>
-      <c r="N9">
-        <v>15.53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
-        <v>0.7</v>
-      </c>
-      <c r="B10">
-        <v>55.59</v>
-      </c>
-      <c r="C10">
-        <v>36.92</v>
-      </c>
-      <c r="D10">
-        <v>27.59</v>
-      </c>
-      <c r="E10">
-        <v>22.31</v>
-      </c>
-      <c r="F10">
-        <v>18.62</v>
-      </c>
-      <c r="H10">
-        <v>38.99</v>
-      </c>
-      <c r="I10">
-        <v>34.36</v>
-      </c>
-      <c r="J10">
-        <v>32.56</v>
-      </c>
-      <c r="K10">
-        <v>32.65</v>
-      </c>
-      <c r="L10">
-        <v>32.880000000000003</v>
-      </c>
-      <c r="N10">
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
-        <v>0.8</v>
-      </c>
-      <c r="B11">
-        <v>52.92</v>
-      </c>
-      <c r="C11">
-        <v>33.72</v>
-      </c>
-      <c r="D11">
-        <v>24.78</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="F11">
-        <v>16.79</v>
-      </c>
-      <c r="H11">
-        <v>36.229999999999997</v>
-      </c>
-      <c r="I11">
-        <v>30.46</v>
-      </c>
-      <c r="J11">
-        <v>28.35</v>
-      </c>
-      <c r="K11">
-        <v>28.39</v>
-      </c>
-      <c r="L11">
-        <v>28.79</v>
-      </c>
-      <c r="N11">
-        <v>9.32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
-        <v>0.9</v>
-      </c>
-      <c r="B12">
-        <v>46.68</v>
-      </c>
-      <c r="C12">
-        <v>27.67</v>
-      </c>
-      <c r="D12">
-        <v>19.79</v>
-      </c>
-      <c r="E12">
-        <v>15.2</v>
-      </c>
-      <c r="F12">
-        <v>12.42</v>
-      </c>
-      <c r="H12">
-        <v>30.48</v>
-      </c>
-      <c r="I12">
-        <v>23.71</v>
-      </c>
-      <c r="J12">
-        <v>21.38</v>
-      </c>
-      <c r="K12">
-        <v>20.25</v>
-      </c>
-      <c r="L12">
-        <v>19.920000000000002</v>
-      </c>
-      <c r="N12">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>63.02</v>
-      </c>
-      <c r="C15">
-        <v>56.35</v>
-      </c>
-      <c r="D15">
-        <v>55.19</v>
-      </c>
-      <c r="E15">
-        <v>55.33</v>
-      </c>
-      <c r="F15">
-        <v>55.98</v>
-      </c>
-      <c r="H15">
-        <v>47.78</v>
-      </c>
-      <c r="I15">
-        <v>46.36</v>
-      </c>
-      <c r="J15">
-        <v>47.17</v>
-      </c>
-      <c r="K15">
-        <v>48.12</v>
-      </c>
-      <c r="L15">
-        <v>49.13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16">
-        <v>0.1</v>
-      </c>
-      <c r="B16">
-        <v>62.9</v>
-      </c>
-      <c r="C16">
-        <v>56.03</v>
-      </c>
-      <c r="D16">
-        <v>54.94</v>
-      </c>
-      <c r="E16">
-        <v>55.37</v>
-      </c>
-      <c r="F16">
-        <v>55.97</v>
-      </c>
-      <c r="H16">
-        <v>47.48</v>
-      </c>
-      <c r="I16">
-        <v>45.93</v>
-      </c>
-      <c r="J16">
-        <v>46.76</v>
-      </c>
-      <c r="K16">
-        <v>48.01</v>
-      </c>
-      <c r="L16">
-        <v>48.98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>0.2</v>
-      </c>
-      <c r="B17">
-        <v>62.19</v>
-      </c>
-      <c r="C17">
-        <v>55.36</v>
-      </c>
-      <c r="D17">
-        <v>53.75</v>
-      </c>
-      <c r="E17">
-        <v>54.09</v>
-      </c>
-      <c r="F17">
-        <v>54.36</v>
-      </c>
-      <c r="H17">
-        <v>46.18</v>
-      </c>
-      <c r="I17">
-        <v>44.79</v>
-      </c>
-      <c r="J17">
-        <v>45.12</v>
-      </c>
-      <c r="K17">
-        <v>46.12</v>
-      </c>
-      <c r="L17">
-        <v>46.72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>0.3</v>
-      </c>
-      <c r="B18">
-        <v>61.55</v>
-      </c>
-      <c r="C18">
-        <v>54.17</v>
-      </c>
-      <c r="D18">
-        <v>53.04</v>
-      </c>
-      <c r="E18">
-        <v>53.3</v>
-      </c>
-      <c r="F18">
-        <v>54</v>
-      </c>
-      <c r="H18">
-        <v>45.54</v>
-      </c>
-      <c r="I18">
-        <v>43.22</v>
-      </c>
-      <c r="J18">
-        <v>43.94</v>
-      </c>
-      <c r="K18">
-        <v>44.93</v>
-      </c>
-      <c r="L18">
-        <v>45.95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
-        <v>0.4</v>
-      </c>
-      <c r="B19">
-        <v>60.95</v>
-      </c>
-      <c r="C19">
-        <v>53.68</v>
-      </c>
-      <c r="D19">
-        <v>52.09</v>
-      </c>
-      <c r="E19">
-        <v>51.97</v>
-      </c>
-      <c r="F19">
-        <v>52.27</v>
-      </c>
-      <c r="H19">
-        <v>44.74</v>
-      </c>
-      <c r="I19">
-        <v>42.55</v>
-      </c>
-      <c r="J19">
-        <v>42.77</v>
-      </c>
-      <c r="K19">
-        <v>43.33</v>
-      </c>
-      <c r="L19">
-        <v>43.91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
-        <v>0.5</v>
-      </c>
-      <c r="B20">
-        <v>60.04</v>
-      </c>
-      <c r="C20">
-        <v>52.56</v>
-      </c>
-      <c r="D20">
-        <v>51.43</v>
-      </c>
-      <c r="E20">
-        <v>51.76</v>
-      </c>
-      <c r="F20">
-        <v>52.18</v>
-      </c>
-      <c r="H20">
-        <v>43.66</v>
-      </c>
-      <c r="I20">
-        <v>41.26</v>
-      </c>
-      <c r="J20">
-        <v>41.8</v>
-      </c>
-      <c r="K20">
-        <v>42.78</v>
-      </c>
-      <c r="L20">
-        <v>43.48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>0.6</v>
-      </c>
-      <c r="B21">
-        <v>57.53</v>
-      </c>
-      <c r="C21">
-        <v>51.09</v>
-      </c>
-      <c r="D21">
-        <v>49.3</v>
-      </c>
-      <c r="E21">
-        <v>49.02</v>
-      </c>
-      <c r="F21">
-        <v>49.22</v>
-      </c>
-      <c r="H21">
-        <v>41.04</v>
-      </c>
-      <c r="I21">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="J21">
-        <v>39.24</v>
-      </c>
-      <c r="K21">
-        <v>39.58</v>
-      </c>
-      <c r="L21">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
-        <v>0.7</v>
-      </c>
-      <c r="B22">
-        <v>55.59</v>
-      </c>
-      <c r="C22">
-        <v>47.99</v>
-      </c>
-      <c r="D22">
-        <v>45.71</v>
-      </c>
-      <c r="E22">
-        <v>45.43</v>
-      </c>
-      <c r="F22">
-        <v>45.53</v>
-      </c>
-      <c r="H22">
-        <v>38.99</v>
-      </c>
-      <c r="I22">
-        <v>36.14</v>
-      </c>
-      <c r="J22">
-        <v>35.49</v>
-      </c>
-      <c r="K22">
-        <v>35.76</v>
-      </c>
-      <c r="L22">
-        <v>36.06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>0.8</v>
-      </c>
-      <c r="B23">
-        <v>52.92</v>
-      </c>
-      <c r="C23">
-        <v>44.07</v>
-      </c>
-      <c r="D23">
-        <v>41.48</v>
-      </c>
-      <c r="E23">
-        <v>41.04</v>
-      </c>
-      <c r="F23">
-        <v>41.13</v>
-      </c>
-      <c r="H23">
-        <v>36.229999999999997</v>
-      </c>
-      <c r="I23">
-        <v>32.229999999999997</v>
-      </c>
-      <c r="J23">
-        <v>31.23</v>
-      </c>
-      <c r="K23">
-        <v>31.31</v>
-      </c>
-      <c r="L23">
-        <v>31.59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
-        <v>0.9</v>
-      </c>
-      <c r="B24">
-        <v>46.68</v>
-      </c>
-      <c r="C24">
-        <v>36.340000000000003</v>
-      </c>
-      <c r="D24">
-        <v>33.39</v>
-      </c>
-      <c r="E24">
-        <v>32.32</v>
-      </c>
-      <c r="F24">
-        <v>32</v>
-      </c>
-      <c r="H24">
-        <v>30.48</v>
-      </c>
-      <c r="I24">
-        <v>25.14</v>
-      </c>
-      <c r="J24">
-        <v>23.69</v>
-      </c>
-      <c r="K24">
-        <v>23.17</v>
-      </c>
-      <c r="L24">
-        <v>23.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29920932-95C7-4A9E-8D7F-DB71148932D2}">
-  <dimension ref="A2:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A2:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>66.83</v>
       </c>
       <c r="C3" s="1">
-        <v>64.239999999999995</v>
+        <v>64.24</v>
       </c>
       <c r="D3" s="1">
         <v>60.3</v>
@@ -19412,34 +19713,34 @@
       <c r="F3" s="1">
         <v>54.05</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>39.64</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>36.67</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>33.04</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>29.22</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>26.03</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>7.43</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>0.1</v>
       </c>
       <c r="B4" s="1">
-        <v>70.849999999999994</v>
+        <v>70.85</v>
       </c>
       <c r="C4" s="1">
-        <v>68.069999999999993</v>
+        <v>68.07</v>
       </c>
       <c r="D4" s="1">
         <v>64.39</v>
@@ -19450,37 +19751,37 @@
       <c r="F4" s="1">
         <v>57.66</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>43.79</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>40.68</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>36.82</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>32.76</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>28.91</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>8.06</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>70.290000000000006</v>
+        <v>70.29</v>
       </c>
       <c r="C5" s="1">
         <v>67.53</v>
       </c>
       <c r="D5" s="1">
-        <v>64.069999999999993</v>
+        <v>64.07</v>
       </c>
       <c r="E5" s="1">
         <v>60.81</v>
@@ -19488,26 +19789,26 @@
       <c r="F5" s="1">
         <v>57.66</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>42.85</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>39.92</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>36.24</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>32.51</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>28.65</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>7.18</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>0.3</v>
       </c>
@@ -19526,31 +19827,31 @@
       <c r="F6" s="1">
         <v>56.44</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>42.31</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>38.46</v>
       </c>
-      <c r="J6" s="1">
-        <v>34.729999999999997</v>
-      </c>
       <c r="K6" s="1">
+        <v>34.73</v>
+      </c>
+      <c r="L6" s="1">
         <v>31.23</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>27.5</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>6.03</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>0.4</v>
       </c>
       <c r="B7" s="1">
-        <v>65.989999999999995</v>
+        <v>65.99</v>
       </c>
       <c r="C7" s="1">
         <v>61.76</v>
@@ -19564,31 +19865,31 @@
       <c r="F7" s="1">
         <v>52.51</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>38.36</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>34.42</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>30.94</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>27.7</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>24.6</v>
       </c>
-      <c r="N7" s="1">
-        <v>4.4400000000000004</v>
+      <c r="O7" s="1">
+        <v>4.44</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
       <c r="B8" s="1">
-        <v>64.260000000000005</v>
+        <v>64.26</v>
       </c>
       <c r="C8" s="1">
         <v>60.88</v>
@@ -19602,26 +19903,26 @@
       <c r="F8" s="1">
         <v>51.48</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>36.64</v>
       </c>
-      <c r="I8" s="1">
-        <v>33.299999999999997</v>
-      </c>
       <c r="J8" s="1">
+        <v>33.3</v>
+      </c>
+      <c r="K8" s="1">
         <v>29.68</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>26.61</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>23.68</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>3.82</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>0.6</v>
       </c>
@@ -19640,26 +19941,26 @@
       <c r="F9" s="1">
         <v>50.11</v>
       </c>
-      <c r="H9" s="1">
-        <v>34.950000000000003</v>
-      </c>
       <c r="I9" s="1">
+        <v>34.95</v>
+      </c>
+      <c r="J9" s="1">
         <v>32.04</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>28.72</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>25.64</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>22.83</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>3.27</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>0.7</v>
       </c>
@@ -19678,26 +19979,26 @@
       <c r="F10" s="1">
         <v>48.69</v>
       </c>
-      <c r="H10" s="1">
-        <v>34.049999999999997</v>
-      </c>
       <c r="I10" s="1">
+        <v>34.05</v>
+      </c>
+      <c r="J10" s="1">
         <v>31.3</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>28</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>24.78</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>21.88</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>2.87</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>0.8</v>
       </c>
@@ -19716,26 +20017,26 @@
       <c r="F11" s="1">
         <v>46</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>33.47</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>29.84</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>26.41</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>23.28</v>
       </c>
-      <c r="L11" s="1">
-        <v>20.350000000000001</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="M11" s="1">
+        <v>20.35</v>
+      </c>
+      <c r="O11" s="1">
         <v>2.57</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>0.9</v>
       </c>
@@ -19754,34 +20055,34 @@
       <c r="F12" s="1">
         <v>38.07</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>31.41</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>27.13</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>23.05</v>
       </c>
-      <c r="K12" s="1">
-        <v>19.670000000000002</v>
-      </c>
       <c r="L12" s="1">
+        <v>19.67</v>
+      </c>
+      <c r="M12" s="1">
         <v>16.46</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>2.31</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="2:9">
       <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -19800,34 +20101,34 @@
       <c r="F15" s="1">
         <v>57.24</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>39.64</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>37.33</v>
       </c>
-      <c r="J15" s="1">
-        <v>34.549999999999997</v>
-      </c>
       <c r="K15" s="1">
+        <v>34.55</v>
+      </c>
+      <c r="L15" s="1">
         <v>31.59</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>28.95</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>0.1</v>
       </c>
       <c r="B16" s="1">
-        <v>70.849999999999994</v>
+        <v>70.85</v>
       </c>
       <c r="C16" s="1">
         <v>68.73</v>
       </c>
       <c r="D16" s="1">
-        <v>66.010000000000005</v>
+        <v>66.01</v>
       </c>
       <c r="E16" s="1">
         <v>63.32</v>
@@ -19835,34 +20136,34 @@
       <c r="F16" s="1">
         <v>61.05</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>43.79</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>41.38</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>38.44</v>
       </c>
-      <c r="K16" s="1">
-        <v>35.299999999999997</v>
-      </c>
       <c r="L16" s="1">
+        <v>35.3</v>
+      </c>
+      <c r="M16" s="1">
         <v>32.19</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>0.2</v>
       </c>
       <c r="B17" s="1">
-        <v>70.290000000000006</v>
+        <v>70.29</v>
       </c>
       <c r="C17" s="1">
         <v>68.16</v>
       </c>
       <c r="D17" s="1">
-        <v>65.599999999999994</v>
+        <v>65.6</v>
       </c>
       <c r="E17" s="1">
         <v>63.18</v>
@@ -19870,23 +20171,23 @@
       <c r="F17" s="1">
         <v>60.88</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>42.85</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>40.57</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>37.76</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>34.86</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>31.76</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>0.3</v>
       </c>
@@ -19905,28 +20206,28 @@
       <c r="F18" s="1">
         <v>59.7</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>42.31</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>39.31</v>
       </c>
-      <c r="J18" s="1">
-        <v>36.409999999999997</v>
-      </c>
       <c r="K18" s="1">
+        <v>36.41</v>
+      </c>
+      <c r="L18" s="1">
         <v>33.64</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>30.62</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>0.4</v>
       </c>
       <c r="B19" s="1">
-        <v>65.989999999999995</v>
+        <v>65.99</v>
       </c>
       <c r="C19" s="1">
         <v>62.72</v>
@@ -19940,28 +20241,28 @@
       <c r="F19" s="1">
         <v>55.6</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>38.36</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>35.28</v>
       </c>
-      <c r="J19" s="1">
-        <v>32.549999999999997</v>
-      </c>
       <c r="K19" s="1">
+        <v>32.55</v>
+      </c>
+      <c r="L19" s="1">
         <v>29.95</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>27.37</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>0.5</v>
       </c>
       <c r="B20" s="1">
-        <v>64.260000000000005</v>
+        <v>64.26</v>
       </c>
       <c r="C20" s="1">
         <v>61.65</v>
@@ -19975,23 +20276,23 @@
       <c r="F20" s="1">
         <v>54.44</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>36.64</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>34.03</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>31.23</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>28.76</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>26.32</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>0.6</v>
       </c>
@@ -20010,23 +20311,23 @@
       <c r="F21" s="1">
         <v>52.95</v>
       </c>
-      <c r="H21" s="1">
-        <v>34.950000000000003</v>
-      </c>
       <c r="I21" s="1">
+        <v>34.95</v>
+      </c>
+      <c r="J21" s="1">
         <v>32.67</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>30.11</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>27.67</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>25.33</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>0.7</v>
       </c>
@@ -20045,23 +20346,23 @@
       <c r="F22" s="1">
         <v>51.68</v>
       </c>
-      <c r="H22" s="1">
-        <v>34.049999999999997</v>
-      </c>
       <c r="I22" s="1">
+        <v>34.05</v>
+      </c>
+      <c r="J22" s="1">
         <v>31.9</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>29.37</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>26.83</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>24.42</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>0.8</v>
       </c>
@@ -20080,23 +20381,23 @@
       <c r="F23" s="1">
         <v>49.31</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>33.47</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>30.63</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>27.95</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>25.45</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>0.9</v>
       </c>
@@ -20115,26 +20416,26 @@
       <c r="F24" s="1">
         <v>42.6</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>31.41</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>28.06</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>24.88</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>22.14</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>19.45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>